--- a/Iniciação Cientifica - Eng Eletrica UFF/evolution_rce_master/src/assets/output/resultado consolidado/resultado_calculado.xlsx
+++ b/Iniciação Cientifica - Eng Eletrica UFF/evolution_rce_master/src/assets/output/resultado consolidado/resultado_calculado.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,27 +502,32 @@
           <t>RCE Generations</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>otimização</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>0.001467866411049457</v>
+        <v>0.02060542406963073</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01956926540036719</v>
+        <v>0.07697388434997521</v>
       </c>
       <c r="C2" t="n">
-        <v>36.52141174284134</v>
+        <v>35.53620108489279</v>
       </c>
       <c r="D2" t="n">
-        <v>13.57583797118635</v>
+        <v>13.88172467181987</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0.001, 0.01, 2.647, 2.329, -2.014, 1.156, 4.467, 2.249, 0.019, 0.904]</t>
+          <t>[-0.02, 0.001, -2.261, 5.435, 3.294, -1.81, -3.096, -4.468, -1.303, -0.996]</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>207</v>
+        <v>73</v>
       </c>
       <c r="G2" t="n">
         <v>0.9</v>
@@ -531,35 +536,40 @@
         <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
         <v>5</v>
       </c>
       <c r="K2" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>0.02065161605365668</v>
+        <v>0.5897008184107014</v>
       </c>
       <c r="B3" t="n">
-        <v>0.001467866411049457</v>
+        <v>0.7456306031989044</v>
       </c>
       <c r="C3" t="n">
-        <v>35.89755888574688</v>
+        <v>37.71112569458124</v>
       </c>
       <c r="D3" t="n">
-        <v>14.17498379069776</v>
+        <v>15.02196153672226</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.002, -0.001, -3.649, -4.374, 2.679, 1.623, 2.159, 2.46, -1.98, 1.59]</t>
+          <t>[0.061, 0.006, 0.029, 3.015, 2.551, 2.037, -0.834, 0.826, 3.03, 5.498]</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>290</v>
+        <v>37</v>
       </c>
       <c r="G3" t="n">
         <v>0.9</v>
@@ -568,35 +578,40 @@
         <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
         <v>5</v>
       </c>
       <c r="K3" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>0.0775125972758719</v>
+        <v>2.476345496469058</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02142120718402651</v>
+        <v>0.05900833755730162</v>
       </c>
       <c r="C4" t="n">
-        <v>33.42583417222508</v>
+        <v>36.5682931112825</v>
       </c>
       <c r="D4" t="n">
-        <v>14.24537515139125</v>
+        <v>14.99233509000756</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-0.004, 0.01, 4.869, -0.857, -1.339, -2.63, 0.455, 4.732, -0.172, 2.055]</t>
+          <t>[0.002, 0.017, -4.693, -1.835, -2.101, -1.951, 1.588, 3.782, 4.894, -1.84]</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="G4" t="n">
         <v>0.9</v>
@@ -605,13 +620,18 @@
         <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
         <v>5</v>
       </c>
       <c r="K4" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -619,21 +639,21 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01260353428449434</v>
+        <v>0.3349871824530428</v>
       </c>
       <c r="C5" t="n">
-        <v>35.96872373428562</v>
+        <v>37.69764246379143</v>
       </c>
       <c r="D5" t="n">
-        <v>12.94990813020247</v>
+        <v>14.98522222692354</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[0.003, -0.007, 2.736, -2.709, -2.144, 3.158, 3.017, 0.444, 2.937, -2.664]</t>
+          <t>[-0.035, 0.021, 1.141, 3.449, -2.63, 3.693, -3.994, 0.94, -0.001, 3.298]</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>346</v>
+        <v>94</v>
       </c>
       <c r="G5" t="n">
         <v>0.9</v>
@@ -642,13 +662,18 @@
         <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
         <v>5</v>
       </c>
       <c r="K5" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -656,21 +681,21 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01461891040138319</v>
+        <v>0.8032267010052188</v>
       </c>
       <c r="C6" t="n">
-        <v>38.25098938108604</v>
+        <v>37.5769562385197</v>
       </c>
       <c r="D6" t="n">
-        <v>13.06450988612045</v>
+        <v>14.0918926159413</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[0.009, -0.001, -2.525, 0.518, 3.849, -3.397, -4.088, -0.646, 0.139, 5.557]</t>
+          <t>[-0.003, -0.064, 5.473, -0.646, 0.534, -2.816, 0.554, -2.569, -4.632, -2.101]</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="G6" t="n">
         <v>0.9</v>
@@ -679,13 +704,18 @@
         <v>100</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
         <v>5</v>
       </c>
       <c r="K6" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -693,21 +723,21 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.004307864184657006</v>
+        <v>1.165074119123496</v>
       </c>
       <c r="C7" t="n">
-        <v>35.30929125890981</v>
+        <v>38.7540276672738</v>
       </c>
       <c r="D7" t="n">
-        <v>14.8042779395</v>
+        <v>14.39080600159788</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[-0.001, 0.005, -1.314, -4.586, 0.412, -4.089, -4.238, 1.825, -1.224, -3.892]</t>
+          <t>[-0.998, 0.029, 1.92, -4.603, 3.522, 1.055, 3.22, 1.688, -4.737, -4.987]</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>358</v>
+        <v>83</v>
       </c>
       <c r="G7" t="n">
         <v>0.9</v>
@@ -716,13 +746,18 @@
         <v>100</v>
       </c>
       <c r="I7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
         <v>5</v>
       </c>
       <c r="K7" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -730,21 +765,21 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.009362332867059564</v>
+        <v>0.4174516062793785</v>
       </c>
       <c r="C8" t="n">
-        <v>36.53174545299066</v>
+        <v>37.62355634815322</v>
       </c>
       <c r="D8" t="n">
-        <v>15.36887250981379</v>
+        <v>13.5132300651573</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[-0.001, 0.007, 3.175, 1.231, 2.945, -0.581, 1.053, 1.488, 0.174, -3.519]</t>
+          <t>[-0.043, -0.017, 0.204, -0.133, -1.246, -2.148, -5.114, 3.641, -4.03, 0.806]</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>202</v>
+        <v>18</v>
       </c>
       <c r="G8" t="n">
         <v>0.9</v>
@@ -753,13 +788,18 @@
         <v>100</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
         <v>5</v>
       </c>
       <c r="K8" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -767,21 +807,21 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.002394019175827822</v>
+        <v>0.02060542406963073</v>
       </c>
       <c r="C9" t="n">
-        <v>35.42935783521022</v>
+        <v>37.13875620982058</v>
       </c>
       <c r="D9" t="n">
-        <v>14.58645074099777</v>
+        <v>13.91135861878948</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[0.003, 0.002, -3.384, 3.603, -2.505, 0.826, 0.991, 0.044, -4.603, -1.536]</t>
+          <t>[0.005, -0.009, 4.381, 2.228, -3.025, -3.339, -4.928, 0.946, 1.508, 4.876]</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>214</v>
+        <v>71</v>
       </c>
       <c r="G9" t="n">
         <v>0.9</v>
@@ -790,13 +830,18 @@
         <v>100</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>5</v>
       </c>
       <c r="K9" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -804,21 +849,21 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03116867977224835</v>
+        <v>1.143000608583135</v>
       </c>
       <c r="C10" t="n">
-        <v>36.96636979009984</v>
+        <v>35.98418339096436</v>
       </c>
       <c r="D10" t="n">
-        <v>14.447955324081</v>
+        <v>15.80975855448107</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[0.001, -0.012, 0.059, -0.666, 5.032, -2.621, -3.245, -4.959, -4.652, 2.21]</t>
+          <t>[0.991, 0.027, -2.337, 1.373, -2.467, -3.615, -3.331, -3.302, -3.643, -1.324]</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="G10" t="n">
         <v>0.9</v>
@@ -827,13 +872,18 @@
         <v>100</v>
       </c>
       <c r="I10" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
         <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -841,21 +891,21 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.028135074950562</v>
+        <v>0.3232662245286306</v>
       </c>
       <c r="C11" t="n">
-        <v>35.47102398623271</v>
+        <v>38.74463091235377</v>
       </c>
       <c r="D11" t="n">
-        <v>14.82864298107708</v>
+        <v>16.33607328197687</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[0.004, 0.011, 3.918, 5.645, -2.628, -2.764, 5.007, 2.795, -0.367, -3.306]</t>
+          <t>[-0.027, -0.03, -2.786, 0.398, 4.468, 3.02, 4.195, 3.776, -2.355, -3.504]</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>309</v>
+        <v>29</v>
       </c>
       <c r="G11" t="n">
         <v>0.9</v>
@@ -864,13 +914,18 @@
         <v>100</v>
       </c>
       <c r="I11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
         <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -878,21 +933,21 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.00295142816124816</v>
+        <v>0.03532955835507501</v>
       </c>
       <c r="C12" t="n">
-        <v>36.69805161454002</v>
+        <v>37.08058982564499</v>
       </c>
       <c r="D12" t="n">
-        <v>13.71072474377827</v>
+        <v>13.66119249466576</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[0.003, 0.002, 0.339, -0.016, 0.417, -2.644, 3.663, 0.515, -4.972, 5.931]</t>
+          <t>[-0.005, -0.012, -3.975, -0.47, 1.33, -4.834, -3.503, 4.036, -2.284, 4.406]</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>286</v>
+        <v>53</v>
       </c>
       <c r="G12" t="n">
         <v>0.9</v>
@@ -901,13 +956,18 @@
         <v>100</v>
       </c>
       <c r="I12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
       </c>
       <c r="K12" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -915,21 +975,21 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01746694681238559</v>
+        <v>0.1030811400123781</v>
       </c>
       <c r="C13" t="n">
-        <v>37.83707331108379</v>
+        <v>37.51796520842527</v>
       </c>
       <c r="D13" t="n">
-        <v>14.92627862596803</v>
+        <v>15.66027875095705</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[0.007, 0.006, 1.059, -0.205, 2.283, -0.647, 1.36, 0.793, 3.579, -0.863]</t>
+          <t>[-0.023, 0.003, -4.34, 1.793, 3.17, 2.567, -4.878, -3.298, 5.101, -0.471]</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>236</v>
+        <v>53</v>
       </c>
       <c r="G13" t="n">
         <v>0.9</v>
@@ -938,13 +998,18 @@
         <v>100</v>
       </c>
       <c r="I13" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
         <v>5</v>
       </c>
       <c r="K13" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -952,21 +1017,21 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.03090056105856931</v>
+        <v>0.5100900245202578</v>
       </c>
       <c r="C14" t="n">
-        <v>37.09557687273732</v>
+        <v>37.55311650566919</v>
       </c>
       <c r="D14" t="n">
-        <v>15.82276847317048</v>
+        <v>14.54953093409861</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[-0.012, 0.001, 5.169, 2.644, 0.861, -0.475, 4.636, 0.043, 4.248, -4.595]</t>
+          <t>[-0.017, -0.048, 4.978, 3.102, 4.451, 4.577, 2.873, 1.158, -3.829, 3.548]</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>186</v>
+        <v>54</v>
       </c>
       <c r="G14" t="n">
         <v>0.9</v>
@@ -975,13 +1040,18 @@
         <v>100</v>
       </c>
       <c r="I14" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
         <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -989,21 +1059,21 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0775125972758719</v>
+        <v>0.1249846750093901</v>
       </c>
       <c r="C15" t="n">
-        <v>34.77232194986456</v>
+        <v>35.97409257505968</v>
       </c>
       <c r="D15" t="n">
-        <v>13.83270842569903</v>
+        <v>14.39223942172186</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[-0.003, -0.019, -3.408, -0.091, -0.908, 3.783, -4.201, -1.139, -1.311, -0.893]</t>
+          <t>[-0.023, -0.01, 0.753, -3.839, 1.547, -3.189, -1.927, -4.379, 3.345, -1.376]</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>355</v>
+        <v>32</v>
       </c>
       <c r="G15" t="n">
         <v>0.9</v>
@@ -1012,13 +1082,18 @@
         <v>100</v>
       </c>
       <c r="I15" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
         <v>5</v>
       </c>
       <c r="K15" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1026,21 +1101,21 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01299947981925165</v>
+        <v>2.476345496469058</v>
       </c>
       <c r="C16" t="n">
-        <v>36.19757655883634</v>
+        <v>38.34011937871384</v>
       </c>
       <c r="D16" t="n">
-        <v>12.88287224059949</v>
+        <v>14.87530565078715</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[0.006, 0.006, 1.59, 3.41, 3.103, 0.249, 2.736, 3.292, 6.758, 2.182]</t>
+          <t>[0.981, 1.043, 2.377, 0.243, 2.083, 0.957, 1.003, -2.888, 1.138, 0.79]</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>389</v>
+        <v>79</v>
       </c>
       <c r="G16" t="n">
         <v>0.9</v>
@@ -1049,13 +1124,18 @@
         <v>100</v>
       </c>
       <c r="I16" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
         <v>5</v>
       </c>
       <c r="K16" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1063,21 +1143,21 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.005056365467352109</v>
+        <v>1.05798511072997</v>
       </c>
       <c r="C17" t="n">
-        <v>36.2575466102053</v>
+        <v>38.40940803607885</v>
       </c>
       <c r="D17" t="n">
-        <v>15.11162021535835</v>
+        <v>14.71960372301659</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[0.002, -0.005, -2.425, -3.673, 5.222, -2.525, 0.348, 2.419, 0.19, 2.842]</t>
+          <t>[-0.01, 1.01, -4.519, 1.379, -2.806, -0.123, -2.018, 3.65, 0.914, 3.235]</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>276</v>
+        <v>51</v>
       </c>
       <c r="G17" t="n">
         <v>0.9</v>
@@ -1086,13 +1166,18 @@
         <v>100</v>
       </c>
       <c r="I17" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
         <v>5</v>
       </c>
       <c r="K17" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1100,21 +1185,21 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01858734947881402</v>
+        <v>0.1651957230303207</v>
       </c>
       <c r="C18" t="n">
-        <v>36.20457378880962</v>
+        <v>38.92716872127548</v>
       </c>
       <c r="D18" t="n">
-        <v>15.83975836930008</v>
+        <v>15.36928820650046</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[-0.01, -0.001, -3.37, -0.55, -0.014, 0.174, -0.561, -4.173, -3.76, 2.753]</t>
+          <t>[0.025, -0.014, 3.318, -2.51, -0.781, -0.045, 4.854, -1.09, 2.901, -1.637]</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G18" t="n">
         <v>0.9</v>
@@ -1123,13 +1208,18 @@
         <v>100</v>
       </c>
       <c r="I18" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
         <v>5</v>
       </c>
       <c r="K18" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1137,21 +1227,21 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.001821154578259154</v>
+        <v>0.05796230140265735</v>
       </c>
       <c r="C19" t="n">
-        <v>34.34558073886901</v>
+        <v>36.19371433992924</v>
       </c>
       <c r="D19" t="n">
-        <v>14.76331084931211</v>
+        <v>14.81734837378289</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[-0.003, 0.001, 5.042, -3.121, 3.758, 4.058, -3.653, -2.232, -6.374, 4.349]</t>
+          <t>[-0.013, -0.011, 2.371, -4.842, 1.708, 3.315, -0.706, -2.169, 4.33, 1.721]</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>338</v>
+        <v>47</v>
       </c>
       <c r="G19" t="n">
         <v>0.9</v>
@@ -1160,13 +1250,18 @@
         <v>100</v>
       </c>
       <c r="I19" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
         <v>5</v>
       </c>
       <c r="K19" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1174,21 +1269,21 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.02419703442016363</v>
+        <v>1.076113230730604</v>
       </c>
       <c r="C20" t="n">
-        <v>35.53123892845922</v>
+        <v>38.56138392090119</v>
       </c>
       <c r="D20" t="n">
-        <v>15.21773001193171</v>
+        <v>14.58514922415272</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[0.011, -0.001, -0.399, -2.871, 0.419, -4.03, 4.044, -3.241, 0.462, 1.195]</t>
+          <t>[0.98, 0.014, 2.592, -4.104, -3.329, 3.488, 4.501, 1.996, -4.353, -4.831]</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>309</v>
+        <v>15</v>
       </c>
       <c r="G20" t="n">
         <v>0.9</v>
@@ -1197,13 +1292,18 @@
         <v>100</v>
       </c>
       <c r="I20" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
         <v>5</v>
       </c>
       <c r="K20" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1211,21 +1311,21 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07649064936954275</v>
+        <v>1.097704416805605</v>
       </c>
       <c r="C21" t="n">
-        <v>36.76758002737508</v>
+        <v>40.13723238506791</v>
       </c>
       <c r="D21" t="n">
-        <v>16.23233268517528</v>
+        <v>14.53878734441955</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[0.004, 0.019, 2.469, -2.991, -4.545, 3.742, 4.97, 4.157, -0.896, 0.037]</t>
+          <t>[0.003, 0.972, 1.508, 4.741, 1.651, 4.142, 3.347, -3.691, 1.689, 0.795]</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>354</v>
+        <v>70</v>
       </c>
       <c r="G21" t="n">
         <v>0.9</v>
@@ -1234,13 +1334,18 @@
         <v>100</v>
       </c>
       <c r="I21" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
         <v>5</v>
       </c>
       <c r="K21" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>test_02</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Iniciação Cientifica - Eng Eletrica UFF/evolution_rce_master/src/assets/output/resultado consolidado/resultado_calculado.xlsx
+++ b/Iniciação Cientifica - Eng Eletrica UFF/evolution_rce_master/src/assets/output/resultado consolidado/resultado_calculado.xlsx
@@ -510,127 +510,127 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>0.02060542406963073</v>
+        <v>0.0004114117357030267</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07697388434997521</v>
+        <v>0.003327468031098846</v>
       </c>
       <c r="C2" t="n">
-        <v>35.53620108489279</v>
+        <v>0.003327468031098846</v>
       </c>
       <c r="D2" t="n">
-        <v>13.88172467181987</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[-0.02, 0.001, -2.261, 5.435, 3.294, -1.81, -3.096, -4.468, -1.303, -0.996]</t>
+          <t>[-0.001, -0.004, 3.21, 4.043, -1.369, 0.51, 1.148, 1.251, 1.646, -3.054]</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H2" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>0.5897008184107014</v>
+        <v>0.04838430359173707</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7456306031989044</v>
+        <v>0.0009326268923981473</v>
       </c>
       <c r="C3" t="n">
-        <v>37.71112569458124</v>
+        <v>0.001146956596021482</v>
       </c>
       <c r="D3" t="n">
-        <v>15.02196153672226</v>
+        <v>0.002132553625040034</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.061, 0.006, 0.029, 3.015, 2.551, 2.037, -0.834, 0.826, 3.03, 5.498]</t>
+          <t>[0.002, -0.001, -4.909, -4.583, -0.476, -2.423, 1.751, 2.155, 3.136, -2.335]</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>37</v>
+        <v>293</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H3" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>2.476345496469058</v>
+        <v>0.5514124420918201</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05900833755730162</v>
+        <v>0.07522058214585492</v>
       </c>
       <c r="C4" t="n">
-        <v>36.5682931112825</v>
+        <v>0.1364590406222389</v>
       </c>
       <c r="D4" t="n">
-        <v>14.99233509000756</v>
+        <v>0.6093149685177748</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[0.002, 0.017, -4.693, -1.835, -2.101, -1.951, 1.588, 3.782, 4.894, -1.84]</t>
+          <t>[-0.013, -0.014, 1.962, 0.766, -5.385, -2.917, -1.687, 1.045, -1.005, -5.031]</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
@@ -639,40 +639,40 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3349871824530428</v>
+        <v>0.003992232625352088</v>
       </c>
       <c r="C5" t="n">
-        <v>37.69764246379143</v>
+        <v>0.003992232625352088</v>
       </c>
       <c r="D5" t="n">
-        <v>14.98522222692354</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[-0.035, 0.021, 1.141, 3.449, -2.63, 3.693, -3.994, 0.94, -0.001, 3.298]</t>
+          <t>[0.002, -0.004, 3.622, -1.911, -3.994, 2.433, 3.766, -3.129, 0.283, 2.087]</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>94</v>
+        <v>247</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H5" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
@@ -681,40 +681,40 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8032267010052188</v>
+        <v>0.016318788959099</v>
       </c>
       <c r="C6" t="n">
-        <v>37.5769562385197</v>
+        <v>0.3377270676700765</v>
       </c>
       <c r="D6" t="n">
-        <v>14.0918926159413</v>
+        <v>3.19797199499486</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[-0.003, -0.064, 5.473, -0.646, 0.534, -2.816, 0.554, -2.569, -4.632, -2.101]</t>
+          <t>[-0.008, -0.005, 2.61, 3.872, -4.773, 0.019, -3.953, -0.397, -1.545, 1.424]</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>85</v>
+        <v>241</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H6" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
@@ -723,40 +723,40 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1.165074119123496</v>
+        <v>0.04187048041968033</v>
       </c>
       <c r="C7" t="n">
-        <v>38.7540276672738</v>
+        <v>0.04187048041968033</v>
       </c>
       <c r="D7" t="n">
-        <v>14.39080600159788</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[-0.998, 0.029, 1.92, -4.603, 3.522, 1.055, 3.22, 1.688, -4.737, -4.987]</t>
+          <t>[0.015, 0.001, 4.044, -2.28, 2.457, 3.483, -4.793, -2.483, 4.0, -1.815]</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H7" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
@@ -765,40 +765,40 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4174516062793785</v>
+        <v>0.0458629444312475</v>
       </c>
       <c r="C8" t="n">
-        <v>37.62355634815322</v>
+        <v>0.3155415008809831</v>
       </c>
       <c r="D8" t="n">
-        <v>13.5132300651573</v>
+        <v>2.248004625440319</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[-0.043, -0.017, 0.204, -0.133, -1.246, -2.148, -5.114, 3.641, -4.03, 0.806]</t>
+          <t>[0.0, 0.015, 2.413, -4.059, 4.109, 1.894, 4.111, -0.525, 0.434, -4.508]</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H8" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
@@ -807,40 +807,40 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02060542406963073</v>
+        <v>0.01793330803132065</v>
       </c>
       <c r="C9" t="n">
-        <v>37.13875620982058</v>
+        <v>0.2163660561109815</v>
       </c>
       <c r="D9" t="n">
-        <v>13.91135861878948</v>
+        <v>1.974380914498053</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[0.005, -0.009, 4.381, 2.228, -3.025, -3.339, -4.928, 0.946, 1.508, 4.876]</t>
+          <t>[0.003, -0.009, -1.718, 0.735, 4.704, 2.698, 1.974, 3.998, -4.269, -1.744]</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>71</v>
+        <v>248</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H9" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
@@ -849,40 +849,40 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>1.143000608583135</v>
+        <v>0.01441770265729758</v>
       </c>
       <c r="C10" t="n">
-        <v>35.98418339096436</v>
+        <v>0.1842229192705223</v>
       </c>
       <c r="D10" t="n">
-        <v>15.80975855448107</v>
+        <v>1.201828909486969</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[0.991, 0.027, -2.337, 1.373, -2.467, -3.615, -3.331, -3.302, -3.643, -1.324]</t>
+          <t>[0.001, -0.008, -2.869, 1.2, -4.528, -5.113, 1.725, 1.201, 1.659, 4.098]</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H10" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3232662245286306</v>
+        <v>0.01353150297635786</v>
       </c>
       <c r="C11" t="n">
-        <v>38.74463091235377</v>
+        <v>0.3569674422831909</v>
       </c>
       <c r="D11" t="n">
-        <v>16.33607328197687</v>
+        <v>2.427303044881209</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[-0.027, -0.03, -2.786, 0.398, 4.468, 3.02, 4.195, 3.776, -2.355, -3.504]</t>
+          <t>[0.004, -0.007, 1.155, -3.147, -2.591, -2.249, -5.015, 1.968, -2.493, 6.026]</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>29</v>
+        <v>247</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H11" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
@@ -933,40 +933,40 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.03532955835507501</v>
+        <v>0.0004114117357030267</v>
       </c>
       <c r="C12" t="n">
-        <v>37.08058982564499</v>
+        <v>0.3155580488370271</v>
       </c>
       <c r="D12" t="n">
-        <v>13.66119249466576</v>
+        <v>2.230059912380302</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[-0.005, -0.012, -3.975, -0.47, 1.33, -4.834, -3.503, 4.036, -2.284, 4.406]</t>
+          <t>[0.001, -0.001, -2.695, -6.234, -0.032, -1.131, -0.578, -4.219, -0.552, -5.565]</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>53</v>
+        <v>293</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
@@ -975,40 +975,40 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1030811400123781</v>
+        <v>0.006297034618096831</v>
       </c>
       <c r="C13" t="n">
-        <v>37.51796520842527</v>
+        <v>0.1704642413880778</v>
       </c>
       <c r="D13" t="n">
-        <v>15.66027875095705</v>
+        <v>1.633443083210158</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[-0.023, 0.003, -4.34, 1.793, 3.17, 2.567, -4.878, -3.298, 5.101, -0.471]</t>
+          <t>[-0.005, -0.002, 4.368, -2.813, 2.331, 0.041, 5.024, -4.447, -1.847, -0.22]</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>53</v>
+        <v>205</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H13" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
@@ -1017,40 +1017,40 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5100900245202578</v>
+        <v>0.01267828854767039</v>
       </c>
       <c r="C14" t="n">
-        <v>37.55311650566919</v>
+        <v>0.83262178884654</v>
       </c>
       <c r="D14" t="n">
-        <v>14.54953093409861</v>
+        <v>4.380606885453869</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[-0.017, -0.048, 4.978, 3.102, 4.451, 4.577, 2.873, 1.158, -3.829, 3.548]</t>
+          <t>[0.0, -0.008, -4.526, -0.402, 2.219, -1.103, 1.951, -0.109, -5.03, -0.337]</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H14" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
@@ -1059,40 +1059,40 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1249846750093901</v>
+        <v>0.0146729628383806</v>
       </c>
       <c r="C15" t="n">
-        <v>35.97409257505968</v>
+        <v>0.0146729628383806</v>
       </c>
       <c r="D15" t="n">
-        <v>14.39223942172186</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[-0.023, -0.01, 0.753, -3.839, 1.547, -3.189, -1.927, -4.379, 3.345, -1.376]</t>
+          <t>[0.0, -0.009, -1.047, 6.53, 4.976, -1.831, -0.519, 4.798, -1.509, -5.246]</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H15" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
@@ -1101,40 +1101,40 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>2.476345496469058</v>
+        <v>0.0131125382684818</v>
       </c>
       <c r="C16" t="n">
-        <v>38.34011937871384</v>
+        <v>0.0131125382684818</v>
       </c>
       <c r="D16" t="n">
-        <v>14.87530565078715</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[0.981, 1.043, 2.377, 0.243, 2.083, 0.957, 1.003, -2.888, 1.138, 0.79]</t>
+          <t>[-0.008, 0.002, -0.223, -4.507, -4.183, 1.188, -2.67, -0.785, 4.926, -0.977]</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H16" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
@@ -1143,40 +1143,40 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>1.05798511072997</v>
+        <v>0.09667754442789267</v>
       </c>
       <c r="C17" t="n">
-        <v>38.40940803607885</v>
+        <v>0.3407442280350323</v>
       </c>
       <c r="D17" t="n">
-        <v>14.71960372301659</v>
+        <v>2.005212019474229</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[-0.01, 1.01, -4.519, 1.379, -2.806, -0.123, -2.018, 3.65, 0.914, 3.235]</t>
+          <t>[0.005, 0.021, 2.827, -3.092, 5.085, 3.654, 2.337, 3.452, 3.623, 4.587]</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>51</v>
+        <v>252</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H17" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
@@ -1185,40 +1185,40 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1651957230303207</v>
+        <v>0.01416501790430935</v>
       </c>
       <c r="C18" t="n">
-        <v>38.92716872127548</v>
+        <v>0.1090155418252776</v>
       </c>
       <c r="D18" t="n">
-        <v>15.36928820650046</v>
+        <v>0.9437507970434441</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[0.025, -0.014, 3.318, -2.51, -0.781, -0.045, 4.854, -1.09, 2.901, -1.637]</t>
+          <t>[-0.001, -0.008, -2.252, -0.319, 0.435, -4.389, -3.768, 0.351, 2.029, 1.173]</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
@@ -1227,40 +1227,40 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05796230140265735</v>
+        <v>0.006322601777156933</v>
       </c>
       <c r="C19" t="n">
-        <v>36.19371433992924</v>
+        <v>0.1450463488348091</v>
       </c>
       <c r="D19" t="n">
-        <v>14.81734837378289</v>
+        <v>0.985200937201361</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[-0.013, -0.011, 2.371, -4.842, 1.708, 3.315, -0.706, -2.169, 4.33, 1.721]</t>
+          <t>[-0.003, 0.005, -3.093, -1.238, 4.546, -4.189, 2.824, -2.12, -2.794, 0.356]</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>47</v>
+        <v>260</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
@@ -1269,40 +1269,40 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>1.076113230730604</v>
+        <v>0.01852859245552274</v>
       </c>
       <c r="C20" t="n">
-        <v>38.56138392090119</v>
+        <v>0.1032425320055642</v>
       </c>
       <c r="D20" t="n">
-        <v>14.58514922415272</v>
+        <v>0.8428930560010086</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[0.98, 0.014, 2.592, -4.104, -3.329, 3.488, 4.501, 1.996, -4.353, -4.831]</t>
+          <t>[-0.008, 0.006, 3.37, -4.602, -5.452, 3.903, 2.525, 0.074, 4.009, 1.515]</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
@@ -1311,40 +1311,40 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>1.097704416805605</v>
+        <v>0.5514124420918201</v>
       </c>
       <c r="C21" t="n">
-        <v>40.13723238506791</v>
+        <v>0.9026379177511973</v>
       </c>
       <c r="D21" t="n">
-        <v>14.53878734441955</v>
+        <v>2.460070062370773</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[0.003, 0.972, 1.508, 4.741, 1.651, 4.142, 3.347, -3.691, 1.689, 0.795]</t>
+          <t>[0.053, -0.006, -0.269, 1.649, -0.543, -2.632, -3.8, 1.249, -1.096, -3.483]</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>70</v>
+        <v>249</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>test_02</t>
+          <t>esfera</t>
         </is>
       </c>
     </row>
